--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Rupert_Jones/Thomas_Rupert_Jones.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Rupert_Jones/Thomas_Rupert_Jones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Rupert Jones est un géologue et un paléontologue britannique, né le 1er octobre 1819 à Londres et mort le 13 avril 1911.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant ses études dans une école privée d’Ilminster, il commence à s’intéresser à la géologie par les fossiles qu’il trouve en abondance dans des roches du lias. En 1835, il devient chirurgien apprenti à Taunton et complète sa formation à Newbury, dans le Berkshire, en 1842. Il commence à pratiquer à Londres jusqu’en 1849 où il devient assistant du secrétaire de la Société géologique de Londres.
 En 1862, il devient professeur de géologie à l’Académie royale militaire de Sandhurst. Il se consacre aux microzoaires fossiles et devient le plus grand spécialiste des foraminifères et des Entomostraca de Grande-Bretagne.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 3 avril 2006).</t>
         </is>
